--- a/ConocoData 2015-2022.xlsx
+++ b/ConocoData 2015-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3812624F-AA95-4210-AE8C-3CB8233968F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CC7172-BD38-4F79-8737-02CEF2E91C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{22D2939E-D293-4375-83D6-E158C197ECA6}"/>
   </bookViews>
@@ -35,9 +35,297 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+  <si>
+    <t>Total GHG Intensity</t>
+  </si>
+  <si>
+    <t>CO2 From operations</t>
+  </si>
+  <si>
+    <t>CO2 from Imported Electricity</t>
+  </si>
+  <si>
+    <t>Methane (CO2e)</t>
+  </si>
+  <si>
+    <t>Nitrous Oxide(CO2e)</t>
+  </si>
+  <si>
+    <t>Total GHG</t>
+  </si>
+  <si>
+    <t>Methane Intensity (kgCo2e.BOE)</t>
+  </si>
+  <si>
+    <t>Methane Emitted as Percent of Natural Gas Production</t>
+  </si>
+  <si>
+    <t>Methane Emitted as percent of Total Hydrocarbon</t>
+  </si>
+  <si>
+    <t>GHG (Thousand Tonnes)</t>
+  </si>
+  <si>
+    <t>CANADA</t>
+  </si>
+  <si>
+    <t>NORWAY</t>
+  </si>
+  <si>
+    <t>AUSTRALIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL OTHERS </t>
+  </si>
+  <si>
+    <t>CO2 From imported Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methane </t>
+  </si>
+  <si>
+    <t>Nitrous Oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO2 From operations </t>
+  </si>
+  <si>
+    <t>Net Equity GHG (Thousand Tonnes)</t>
+  </si>
+  <si>
+    <t>Net Equity GHG (kg CO2e/BOE)^2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GHG (Thousand Tonnes)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Countries </t>
+  </si>
+  <si>
+    <t>Year 2017</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Total for Year</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year 2021 </t>
+  </si>
+  <si>
+    <t>Total GHG intensity(*1000)</t>
+  </si>
+  <si>
+    <t>Year 2020</t>
+  </si>
+  <si>
+    <t>Year 2019</t>
+  </si>
+  <si>
+    <t>Year 2018</t>
+  </si>
+  <si>
+    <t>Year 2016</t>
+  </si>
+  <si>
+    <t>Total GHG Intensity(*1000)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total Green House Gases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total Green House Gases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total Green House Gases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total Green House Gases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total Green House Gases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Green House Gases</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Year 2022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Total Green House Gases</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +333,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +386,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +709,1390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0F6497-1CB5-424C-8E7E-F895080D60FC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D2">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>35.1</v>
+      </c>
+      <c r="F2">
+        <v>34.9</v>
+      </c>
+      <c r="G2">
+        <v>36.5</v>
+      </c>
+      <c r="H2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="I2">
+        <v>26.9</v>
+      </c>
+      <c r="J2">
+        <v>23.3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>6129</v>
+      </c>
+      <c r="P3">
+        <v>3217</v>
+      </c>
+      <c r="Q3">
+        <v>1094</v>
+      </c>
+      <c r="R3">
+        <v>2104</v>
+      </c>
+      <c r="S3">
+        <v>685</v>
+      </c>
+      <c r="T3">
+        <v>13228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>18600</v>
+      </c>
+      <c r="D4">
+        <v>19600</v>
+      </c>
+      <c r="E4">
+        <v>17700</v>
+      </c>
+      <c r="F4">
+        <v>18000</v>
+      </c>
+      <c r="G4">
+        <v>17700</v>
+      </c>
+      <c r="H4">
+        <v>13800</v>
+      </c>
+      <c r="I4">
+        <v>15900</v>
+      </c>
+      <c r="J4">
+        <v>13228</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>711</v>
+      </c>
+      <c r="P4">
+        <v>336</v>
+      </c>
+      <c r="Q4">
+        <v>14</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1300</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="E5">
+        <v>1200</v>
+      </c>
+      <c r="F5">
+        <v>1100</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
+      </c>
+      <c r="H5">
+        <v>700</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>1060</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5">
+        <v>1593</v>
+      </c>
+      <c r="P5">
+        <v>46</v>
+      </c>
+      <c r="Q5">
+        <v>27</v>
+      </c>
+      <c r="R5">
+        <v>28</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>6100</v>
+      </c>
+      <c r="D6">
+        <v>5300</v>
+      </c>
+      <c r="E6">
+        <v>1900</v>
+      </c>
+      <c r="F6">
+        <v>1600</v>
+      </c>
+      <c r="G6">
+        <v>1700</v>
+      </c>
+      <c r="H6">
+        <v>1600</v>
+      </c>
+      <c r="I6">
+        <v>1800</v>
+      </c>
+      <c r="J6">
+        <v>1704</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>7</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>21</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2">
+        <v>8441</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3605</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1138</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2134</v>
+      </c>
+      <c r="S7" s="2">
+        <v>697</v>
+      </c>
+      <c r="T7" s="2">
+        <v>16014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>26800</v>
+      </c>
+      <c r="D8" s="6">
+        <v>26100</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20900</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20800</v>
+      </c>
+      <c r="G8" s="6">
+        <v>20500</v>
+      </c>
+      <c r="H8" s="6">
+        <v>16200</v>
+      </c>
+      <c r="I8" s="6">
+        <v>18720</v>
+      </c>
+      <c r="J8" s="6">
+        <v>16014</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8">
+        <v>19</v>
+      </c>
+      <c r="P8">
+        <v>56.3</v>
+      </c>
+      <c r="Q8">
+        <v>14.2</v>
+      </c>
+      <c r="R8">
+        <v>25.8</v>
+      </c>
+      <c r="S8">
+        <v>43.3</v>
+      </c>
+      <c r="T8">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>8.1</v>
+      </c>
+      <c r="E10">
+        <v>3.2</v>
+      </c>
+      <c r="F10">
+        <v>2.7</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3.4</v>
+      </c>
+      <c r="I10">
+        <v>2.6</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>6200</v>
+      </c>
+      <c r="P11">
+        <v>3200</v>
+      </c>
+      <c r="Q11">
+        <v>1200</v>
+      </c>
+      <c r="R11">
+        <v>2100</v>
+      </c>
+      <c r="S11">
+        <v>3000</v>
+      </c>
+      <c r="T11">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>600</v>
+      </c>
+      <c r="P12">
+        <v>400</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>1600</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>16700</v>
+      </c>
+      <c r="I14">
+        <v>18300</v>
+      </c>
+      <c r="J14">
+        <v>18347</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I15">
+        <v>32.9</v>
+      </c>
+      <c r="J15">
+        <v>28.9</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2">
+        <v>8410</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3900</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1200</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2100</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3110</v>
+      </c>
+      <c r="T15" s="2">
+        <v>18720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16">
+        <v>20.7</v>
+      </c>
+      <c r="P16">
+        <v>55.2</v>
+      </c>
+      <c r="Q16">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R16">
+        <v>25.4</v>
+      </c>
+      <c r="S16">
+        <v>44.8</v>
+      </c>
+      <c r="T16">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M18" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19">
+        <v>4600</v>
+      </c>
+      <c r="P19">
+        <v>2800</v>
+      </c>
+      <c r="Q19">
+        <v>1200</v>
+      </c>
+      <c r="R19">
+        <v>2000</v>
+      </c>
+      <c r="S19">
+        <v>3200</v>
+      </c>
+      <c r="T19">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="20" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20">
+        <v>400</v>
+      </c>
+      <c r="P20">
+        <v>300</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21">
+        <v>1500</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>100</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2">
+        <v>6500</v>
+      </c>
+      <c r="P23" s="2">
+        <v>3300</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>1200</v>
+      </c>
+      <c r="R23" s="2">
+        <v>2000</v>
+      </c>
+      <c r="S23" s="2">
+        <v>3200</v>
+      </c>
+      <c r="T23" s="2">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="24" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24">
+        <v>29.3</v>
+      </c>
+      <c r="P24">
+        <v>63.3</v>
+      </c>
+      <c r="Q24">
+        <v>21.6</v>
+      </c>
+      <c r="R24">
+        <v>21.6</v>
+      </c>
+      <c r="S24">
+        <v>50.2</v>
+      </c>
+      <c r="T24">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27">
+        <v>5900</v>
+      </c>
+      <c r="P27">
+        <v>3000</v>
+      </c>
+      <c r="Q27">
+        <v>1200</v>
+      </c>
+      <c r="R27">
+        <v>4000</v>
+      </c>
+      <c r="S27">
+        <v>3600</v>
+      </c>
+      <c r="T27">
+        <v>17700</v>
+      </c>
+    </row>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>14</v>
+      </c>
+      <c r="O28">
+        <v>600</v>
+      </c>
+      <c r="P28">
+        <v>400</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>15</v>
+      </c>
+      <c r="O29">
+        <v>1600</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>16</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>100</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2">
+        <v>8100</v>
+      </c>
+      <c r="P31" s="2">
+        <v>3500</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1200</v>
+      </c>
+      <c r="R31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="S31" s="2">
+        <v>3700</v>
+      </c>
+      <c r="T31" s="2">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="32" spans="12:20" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32">
+        <v>31.6</v>
+      </c>
+      <c r="P32">
+        <v>65.7</v>
+      </c>
+      <c r="Q32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R32">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="S32">
+        <v>51.4</v>
+      </c>
+      <c r="T32">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="34" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M34" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O35">
+        <v>5000</v>
+      </c>
+      <c r="P35">
+        <v>3300</v>
+      </c>
+      <c r="Q35">
+        <v>2100</v>
+      </c>
+      <c r="R35">
+        <v>4200</v>
+      </c>
+      <c r="S35">
+        <v>2900</v>
+      </c>
+      <c r="T35">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="36" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36">
+        <v>600</v>
+      </c>
+      <c r="P36">
+        <v>500</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="37" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>15</v>
+      </c>
+      <c r="O37">
+        <v>1400</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>100</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>100</v>
+      </c>
+      <c r="T37">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="38" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2">
+        <v>7000</v>
+      </c>
+      <c r="P39" s="2">
+        <v>3800</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>2200</v>
+      </c>
+      <c r="R39" s="2">
+        <v>4200</v>
+      </c>
+      <c r="S39" s="2">
+        <v>3000</v>
+      </c>
+      <c r="T39" s="2">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="40" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40">
+        <v>29.2</v>
+      </c>
+      <c r="P40">
+        <v>63.5</v>
+      </c>
+      <c r="Q40">
+        <v>19.5</v>
+      </c>
+      <c r="R40">
+        <v>37.4</v>
+      </c>
+      <c r="S40">
+        <v>43.3</v>
+      </c>
+      <c r="T40">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M42" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>17</v>
+      </c>
+      <c r="O43">
+        <v>5000</v>
+      </c>
+      <c r="P43">
+        <v>3100</v>
+      </c>
+      <c r="Q43">
+        <v>2100</v>
+      </c>
+      <c r="R43">
+        <v>4300</v>
+      </c>
+      <c r="S43">
+        <v>2900</v>
+      </c>
+      <c r="T43">
+        <v>17400</v>
+      </c>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44">
+        <v>700</v>
+      </c>
+      <c r="P44">
+        <v>500</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="45" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>15</v>
+      </c>
+      <c r="O45">
+        <v>1600</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>100</v>
+      </c>
+      <c r="R45">
+        <v>100</v>
+      </c>
+      <c r="S45">
+        <v>100</v>
+      </c>
+      <c r="T45">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="46" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>16</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2">
+        <v>7300</v>
+      </c>
+      <c r="P47" s="2">
+        <v>3600</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>2300</v>
+      </c>
+      <c r="R47" s="2">
+        <v>4400</v>
+      </c>
+      <c r="S47" s="2">
+        <v>3000</v>
+      </c>
+      <c r="T47" s="2">
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="48" spans="13:21" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>28</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M50" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O51">
+        <v>7100</v>
+      </c>
+      <c r="P51">
+        <v>3100</v>
+      </c>
+      <c r="Q51">
+        <v>2100</v>
+      </c>
+      <c r="R51">
+        <v>3900</v>
+      </c>
+      <c r="S51">
+        <v>3700</v>
+      </c>
+      <c r="T51">
+        <v>19900</v>
+      </c>
+    </row>
+    <row r="52" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>14</v>
+      </c>
+      <c r="O52">
+        <v>900</v>
+      </c>
+      <c r="P52">
+        <v>600</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>15</v>
+      </c>
+      <c r="O53">
+        <v>3700</v>
+      </c>
+      <c r="P53">
+        <v>1300</v>
+      </c>
+      <c r="Q53">
+        <v>100</v>
+      </c>
+      <c r="R53">
+        <v>100</v>
+      </c>
+      <c r="S53">
+        <v>100</v>
+      </c>
+      <c r="T53">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="54" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>16</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2">
+        <v>11700</v>
+      </c>
+      <c r="P55" s="2">
+        <v>5000</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>2200</v>
+      </c>
+      <c r="R55" s="2">
+        <v>4000</v>
+      </c>
+      <c r="S55" s="2">
+        <v>3800</v>
+      </c>
+      <c r="T55" s="2">
+        <v>26800</v>
+      </c>
+    </row>
+    <row r="56" spans="13:20" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>28</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -624,15 +2329,15 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1255639C-4DCF-468C-B41A-1B1A1EF6AA04}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2ba40cf0-a5c9-47a9-9ac1-59dcc5fba2a3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2ba40cf0-a5c9-47a9-9ac1-59dcc5fba2a3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>